--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900iopages\csi4900iopages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7578E5-B987-47A8-B033-18668008D2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42D593-B424-49A4-BEBA-D1F5C54A637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
@@ -6489,7 +6489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6508,6 +6508,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6826,7 +6829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7062,7 +7065,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -7082,7 +7085,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7099,7 +7102,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -7200,20 +7203,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7234,51 +7237,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="8">
         <v>1</v>
       </c>
     </row>

--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900iopages\csi4900iopages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\SCHOOL\Winter 2023\CSI4900iopages\csi4900iopages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42D593-B424-49A4-BEBA-D1F5C54A637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A7BA89-3ECC-4B29-A0EF-E58AF4AA8720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6463,7 +6463,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6473,6 +6473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6489,7 +6495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6509,8 +6515,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6829,23 +6836,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6885,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6896,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -6907,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6918,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6929,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6940,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6951,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6962,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6973,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -7007,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -7027,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -7047,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -7064,147 +7071,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -7220,24 +7227,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
@@ -7251,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
@@ -7271,8 +7278,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -7285,490 +7292,490 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" s="1"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="1"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
     </row>
   </sheetData>

--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\SCHOOL\Winter 2023\CSI4900iopages\csi4900iopages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900iopages\csi4900iopages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A7BA89-3ECC-4B29-A0EF-E58AF4AA8720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD95F74-61C0-4237-9C28-E68F97F1D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
+    <workbookView xWindow="28680" yWindow="-9165" windowWidth="16440" windowHeight="28440" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Email_HTML</t>
   </si>
@@ -5409,467 +5409,6 @@
     <t>email_106</t>
   </si>
   <si>
-    <t>&lt;html xmlns="http://www.w3.org/TR/REC-html40" xmlns:m="http://schemas.microsoft.com/office/2004/12/omml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="urn:schemas-microsoft-com:office:word"&gt;
-&lt;head&gt;
-&lt;meta content="text/html; charset=utf-8" http-equiv="Content-Type"/&gt;
-&lt;meta content="Microsoft Word 15 (filtered medium)" name="Generator"/&gt;
-&lt;!--[if !mso]&gt;&lt;style id=media-query&gt;v\:* {behavior:url(#default#VML);}
-o\:* {behavior:url(#default#VML);}
-w\:* {behavior:url(#default#VML);}
-.shape {behavior:url(#default#VML);}
-&lt;/style&gt;&lt;![endif]--&gt;&lt;style&gt;&lt;!--
-/* Font Definitions */
-@font-face
-	{font-family:Roboto;}
-@font-face
-	{font-family:"Cambria Math";
-	panose-1:2 4 5 3 5 4 6 3 2 4;}
-@font-face
-	{font-family:Calibri;
-	panose-1:2 15 5 2 2 2 4 3 2 4;}
-@font-face
-	{font-family:Verdana;
-	panose-1:2 11 6 4 3 5 4 4 2 4;}
-@font-face
-	{font-family:Roboto;}
-/* Style Definitions */
-p.MsoNormal, li.MsoNormal, div.MsoNormal
-	{margin:0in;
-	font-size:11.0pt;
-	font-family:"Calibri",sans-serif;}
-a:link, span.MsoHyperlink
-	{mso-style-priority:99;
-	color:blue;
-	text-decoration:underline;}
-span.EmailStyle20
-	{mso-style-type:personal-reply;
-	font-family:"Calibri",sans-serif;
-	color:#1F497D;
-	font-weight:normal;
-	font-style:normal;
-	text-decoration:none none;}
-.MsoChpDefault
-	{mso-style-type:export-only;
-	font-size:10.0pt;}
-@page WordSection1
-	{size:8.5in 11.0in;
-	margin:1.0in 1.0in 1.0in 1.0in;}
-div.WordSection1
-	{page:WordSection1;}
---&gt;&lt;/style&gt;&lt;!--[if gte mso 9]&gt;&lt;xml&gt;
-&lt;o:shapedefaults v:ext="edit" spidmax="1026" /&gt;
-&lt;/xml&gt;&lt;![endif]--&gt;&lt;!--[if gte mso 9]&gt;&lt;xml&gt;
-&lt;o:shapelayout v:ext="edit"&gt;
-&lt;o:idmap v:ext="edit" data="1" /&gt;
-&lt;/o:shapelayout&gt;&lt;/xml&gt;&lt;![endif]--&gt;
-&lt;/head&gt;
-&lt;body lang="EN-US" link="blue" style="-webkit-text-size-adjust: 100%" vlink="purple"&gt;
-&lt;div class="WordSection1"&gt;
-&lt;p class="MsoNormal"&gt;&lt;span style="font-size:14.0pt;color:#1F497D"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal"&gt;&lt;span style="font-size:14.0pt;color:#1F497D"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;div&gt;
-&lt;div style="border:none;border-top:solid #E1E1E1 1.0pt;padding:3.0pt 0in 0in 0in"&gt;
-&lt;p class="MsoNormal"&gt;&lt;b&gt;From:&lt;/b&gt;testEmail@testServer.com&lt;br/&gt;
-&lt;b&gt;Sent:&lt;/b&gt; Tuesday, February 18, 2020 10:59 AM&lt;br/&gt;
-&lt;b&gt;To:&lt;/b&gt;testEmail@testServer.com&lt;br/&gt;
-&lt;b&gt;Subject:&lt;/b&gt; 2020 Exclusive Offer! Apple iPhone 11 Pro only for $1.45!&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;p class="MsoNormal"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/p&gt;
-&lt;div&gt;
-&lt;p class="MsoNormal"&gt;&lt;b&gt;&lt;span style="font-size:9.0pt;color:#FF4233"&gt;Attention : courriel externe | external email&lt;/span&gt;&lt;/b&gt;&lt;span style="font-size:9.0pt;color:#FF4233"&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse;min-width: 320px;border-spacing: 0" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in;word-break:break-word" valign="top"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse;word-break:break-word" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in;border-top:transparent;border-left:transparent;border-bottom:transparent;border-right:transparent" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:525.0pt;border-collapse:collapse" width="700"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width:525.0pt;padding:0in 0in 0in 0in" valign="top" width="700"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:3.75pt 0in 3.75pt 0in" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:7.5pt 7.5pt 7.5pt 7.5pt" valign="top"&gt;
-&lt;p class="MsoNormal" style="line-height:120%"&gt;&lt;span style='font-family:"Verdana",sans-serif;color:#555555'&gt; &lt;/span&gt;&lt;span style='font-size:8.0pt;line-height:120%;font-family:"Verdana",sans-serif;color:#555555'&gt;&lt;a href="https://tack-gr.inflatindoç#.comç#/ga/unsubscribe/2-133216269-6414-98295-191730-e9608d1012e56c5-9858241903"&gt;Unsubscribe
- me from this mailing list&lt;/a&gt;  | &lt;a href="https://tack-gr.inflatindoç#.comç#/ga/unsubscribe/2-133216269-6414-98295-191730-e9608d1012e56c5-9858241903"&gt;
-&lt;span style="font-family:Roboto;color:#263238"&gt;Report Spam&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span style='font-family:"Verdana",sans-serif;color:#555555'&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:525.0pt;border-collapse:collapse" width="700"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width:525.0pt;padding:0in 0in 0in 0in" valign="top" width="700"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:3.75pt 0in 0in 0in" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center;mso-line-height-alt:0pt"&gt;
-&lt;a href="https://tack-gr.inflatindoç#.comç#/ga/click/2-133216269-6414-98295-191730-146879-538b506916-9858241903" target="_blank"&gt;&lt;span style="border:solid windowtext 1.0pt;padding:0in;text-decoration:none"&gt;&lt;img alt="Image removed by sender. Premium CBD oil" border="0" height="72" id="Picture_x005F_x0020_1" src="cid:~WRD0004.jpg" style="width:1.275in;height:.75in" width="122"/&gt;&lt;/span&gt;&lt;/a&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/p&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:525.0pt;border-collapse:collapse" width="700"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width:525.0pt;border-top:#008545 1.5pt;border-left:#007EBD 1.0pt;border-bottom:#3AAEE0 1.0pt;border-right:#3AAEE0 1.0pt;border-style:solid;padding:0in 0in 0in 0in" valign="top" width="700"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 3.75pt 0in" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:22.5pt 7.5pt 7.5pt 7.5pt" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p align="center" style="margin:0in;text-align:center;line-height:33.75pt"&gt;&lt;strong&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#008545'&gt;2020 Exclusive Offer&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#008545'&gt;&lt;br/&gt;
-&lt;/span&gt;&lt;strong&gt;&lt;span style='font-size:14.0pt;font-family:"Verdana",sans-serif;color:#008545'&gt;Apple iPhone 11 Pro&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#008545'&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p align="center" style="margin:0in;text-align:center;line-height:18.75pt"&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#008545'&gt;Triple-camera system with 12MP Ultra Wide, Wide, and Telephoto cameras; Night mode, Portrait mode, and 4K
- video up to 60fps.&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p align="center" style="margin:0in;text-align:center;line-height:18.75pt"&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#008545'&gt;Only For $1.45&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center;vertical-align:top"&gt;
-&lt;span style="display:none"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 7.5pt 0in 7.5pt" valign="top"&gt;
-&lt;div&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center;line-height:7.5pt"&gt;&lt;span style="font-size:1.0pt"&gt; &lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center;line-height:7.5pt"&gt;&lt;span style="font-size:1.0pt"&gt; &lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;p class="MsoNormal" style="vertical-align:top"&gt;&lt;span style="display:none"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:7.5pt 22.5pt 22.5pt 22.5pt" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p align="center" style="text-align:center;line-height:13.5pt"&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#383B30'&gt;Hurry Up!&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p align="center" style="text-align:center;line-height:13.5pt"&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#383B30'&gt;Answer our mini-feedback survey and claim your gift at the lowest price ever.&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:525.0pt;border-collapse:collapse" width="700"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width:262.5pt;background:#DFE0DF;padding:0in 0in 0in 0in" valign="top" width="350"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:15.0pt 0in 15.0pt 3.75pt" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:11.25pt 0in 11.25pt 11.25pt" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p style="margin:0in;line-height:13.5pt"&gt;&lt;strong&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#393434'&gt;Free Delivery&lt;/span&gt;&lt;/strong&gt;&lt;span style='font-size:10.5pt;font-family:"Verdana",sans-serif;color:#393434'&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;td style="width:262.5pt;background:#DFE0DF;padding:0in 0in 0in 0in;border-top:transparent;border-left:transparent;border-bottom:transparent;border-right:transparent" valign="top" width="350"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse;border-spacing: 0" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:3.75pt 0in 3.75pt 0in;border-spacing: 0" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:18.75pt 15.0pt 15.0pt 15.0pt" valign="top"&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center"&gt;&lt;img alt="ORDER NOW" border="0" height="54" id="_x005F_x0000_i1026" src="cid:image001.png@01D66EA1.1D3F0E30" style="width:3.2333in;height:.5666in" width="310"/&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center"&gt;&lt;o:p&gt; &lt;/o:p&gt;&lt;/p&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in;border-top:transparent;border-left:transparent;border-bottom:transparent;border-right:transparent" valign="top"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:525.0pt;border-collapse:collapse" width="700"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width:262.5pt;padding:0in 0in 0in 0in" valign="top" width="350"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;td style="width:262.5pt;padding:0in 0in 0in 0in;border-top:transparent;border-left:transparent;border-bottom:transparent;border-right:transparent" valign="top" width="350"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p align="center" class="MsoNormal" style="text-align:center;vertical-align:top"&gt;
- &lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:0in 0in 0in 0in" valign="top"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:525.0pt;border-collapse:collapse" width="700"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width:525.0pt;padding:0in 0in 0in 0in" valign="top" width="700"&gt;
-&lt;div align="center"&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:3.75pt 0in 3.75pt 0in" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;table border="0" cellpadding="0" cellspacing="0" class="MsoNormalTable" style="width:100.0%;border-collapse:collapse" width="100%"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="padding:7.5pt 7.5pt 7.5pt 7.5pt" valign="top"&gt;
-&lt;div&gt;
-&lt;div&gt;
-&lt;p align="center" style="margin:0in;text-align:center;line-height:10.5pt"&gt;&lt;span style='font-size:9.0pt;font-family:"Verdana",sans-serif;color:#555555'&gt; &lt;/span&gt;&lt;span style='font-size:10.5pt;font-family:"Verdana",sans-serif;color:#555555'&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/div&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;p align="center" style="text-align:center"&gt;&lt;span style='font-size:8.0pt;font-family:"Calibri",sans-serif'&gt;&lt;a href="https://tack-gr.inflatindoç#.comç#/ga/unsubscribe/2-133216269-6414-98295-191730-e9608d1012e56c5-9858241903"&gt;Unsubscribe me from this mailing list&lt;/a&gt; 
- | &lt;a href="https://tack-gr.inflatindoç#.comç#/ga/unsubscribe/2-133216269-6414-98295-191730-e9608d1012e56c5-9858241903"&gt;
-&lt;span style="font-family:Roboto;color:#263238"&gt;Report Spam&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span style='font-size:11.0pt;font-family:"Calibri",sans-serif'&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style='font-size:8.0pt;font-family:"Calibri",sans-serif'&gt;&lt;a href="https://tack-gr.inflatindoç#.comç#/ga/click/2-133216269-6414-98295-191730-146880-8df8f704ac-9858241903"&gt;&lt;span style="font-family:Roboto;color:#263238"&gt;.&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span style='font-size:11.0pt;font-family:"Calibri",sans-serif'&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p class="MsoNormal"&gt;&lt;span style="border:solid windowtext 1.0pt;padding:0in"&gt;&lt;img alt="Image removed by sender." border="0" height="2" id="Picture_x005F_x0020_3" src="cid:~WRD0004.jpg" style="width:.0333in;height:.025in" width="3"/&gt;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
-  </si>
-  <si>
     <t>email_107</t>
   </si>
   <si>
@@ -6463,7 +6002,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6479,6 +6018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6515,8 +6060,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6835,24 +6380,24 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6881,7 +6426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -6892,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -6903,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -6914,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6925,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6947,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6958,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6969,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6980,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -6997,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -7014,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -7034,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -7054,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -7071,8 +6616,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -7091,8 +6636,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -7108,24 +6653,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
@@ -7142,8 +6687,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -7159,8 +6704,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -7176,8 +6721,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -7193,8 +6738,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -7210,46 +6755,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -7258,12 +6803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -7278,504 +6823,504 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
     </row>
   </sheetData>

--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900iopages\csi4900iopages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD95F74-61C0-4237-9C28-E68F97F1D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44F5EC-DD9F-4639-8251-1F34886FE9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9165" windowWidth="16440" windowHeight="28440" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6040,7 +6040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6059,10 +6059,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6380,8 +6379,8 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,40 +6615,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
@@ -6670,88 +6669,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23">
         <v>1</v>
       </c>
     </row>
@@ -6789,37 +6788,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27">
         <v>1</v>
       </c>
     </row>

--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900iopages\csi4900iopages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44F5EC-DD9F-4639-8251-1F34886FE9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9FC44-05AE-4D1C-93EF-434202391791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6060,7 +6060,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6379,8 +6379,8 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="5" sqref="A5 A6 A7 A8 A9 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6458,14 +6458,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6669,20 +6669,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>

--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900iopages\csi4900iopages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9FC44-05AE-4D1C-93EF-434202391791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B23705-B155-4F33-861E-DD0D33819BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6002,7 +6002,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6018,12 +6018,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6059,9 +6053,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6380,7 +6374,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="5" sqref="A5 A6 A7 A8 A9 A10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6458,69 +6452,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6670,7 +6664,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="7" t="s">
